--- a/RawData/UtilizationOfHardwoodinBiorefineryAKineticInterpretationofPilot-ScaleHot-WaterPretreatment.xlsx
+++ b/RawData/UtilizationOfHardwoodinBiorefineryAKineticInterpretationofPilot-ScaleHot-WaterPretreatment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA696369-5BF1-489E-943F-92709F7BBAB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27097FA-9B84-45A5-8F53-266EC1666457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>mol proton/L</t>
   </si>
@@ -356,6 +356,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3348,29 +3356,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBFDDB0-64D9-428A-B667-8EAE0E841A52}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="24" max="24" width="22.6640625" customWidth="1"/>
+    <col min="25" max="25" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3381,73 +3389,76 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>34</v>
       </c>
@@ -3457,35 +3468,38 @@
       <c r="C3">
         <v>7.69</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>81</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>169390.10356731873</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>34</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14.5</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>67</v>
       </c>
@@ -3495,35 +3509,38 @@
       <c r="C4">
         <v>7.69</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>81</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>169390.10356731873</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>67</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>14.5</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>82</v>
       </c>
@@ -3533,35 +3550,38 @@
       <c r="C5">
         <v>7.69</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>81</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>169390.10356731873</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>67</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>14.5</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>97</v>
       </c>
@@ -3571,35 +3591,38 @@
       <c r="C6">
         <v>7.69</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>81</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>169390.10356731873</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>67</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>14.5</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>112</v>
       </c>
@@ -3609,35 +3632,38 @@
       <c r="C7">
         <v>7.69</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>81</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>169390.10356731873</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>45</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>67</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>14.5</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>127</v>
       </c>
@@ -3647,35 +3673,38 @@
       <c r="C8">
         <v>7.69</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>81</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>169390.10356731873</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>60</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>67</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>14.5</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.91936286644950915</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>142</v>
       </c>
@@ -3685,35 +3714,38 @@
       <c r="C9">
         <v>7.69</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>81</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>169390.10356731873</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>20</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>75</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>67</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>14.5</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1.5257511400651464</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>157</v>
       </c>
@@ -3723,35 +3755,38 @@
       <c r="C10">
         <v>7.69</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>81</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>169390.10356731873</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>90</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>67</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>14.5</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2.4451140065146482</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>172</v>
       </c>
@@ -3761,35 +3796,38 @@
       <c r="C11">
         <v>7.69</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>81</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>169390.10356731873</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>20</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>105</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>67</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>14.5</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3.9904260586319089</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>187</v>
       </c>
@@ -3799,35 +3837,38 @@
       <c r="C12">
         <v>7.69</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>81</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>169390.10356731873</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>20</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>120</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>67</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>14.5</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>4.1860351791530803</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>202</v>
       </c>
@@ -3837,35 +3878,38 @@
       <c r="C13">
         <v>7.69</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>81</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>169390.10356731873</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>135</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>67</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>14.5</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>7.4527074918566747</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>217</v>
       </c>
@@ -3875,35 +3919,38 @@
       <c r="C14">
         <v>7.69</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>81</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>169390.10356731873</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>20</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>150</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>67</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>14.5</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>8.0590957654723052</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>232</v>
       </c>
@@ -3913,35 +3960,38 @@
       <c r="C15">
         <v>7.69</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>81</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>169390.10356731873</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>20</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>165</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>67</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14.5</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>7.8830475570032466</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>247</v>
       </c>
@@ -3951,35 +4001,38 @@
       <c r="C16">
         <v>7.69</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>81</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>169390.10356731873</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>20</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>180</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>67</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>14.5</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>9.7413342019543947</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>262</v>
       </c>
@@ -3989,35 +4042,38 @@
       <c r="C17">
         <v>7.69</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>81</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>169390.10356731873</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>195</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>67</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>14.5</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>8.1177785016286617</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>277</v>
       </c>
@@ -4027,35 +4083,38 @@
       <c r="C18">
         <v>7.69</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>81</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>169390.10356731873</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>210</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>67</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>14.5</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>10.660697068403897</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>292</v>
       </c>
@@ -4065,31 +4124,34 @@
       <c r="C19">
         <v>7.69</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>81</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>169390.10356731873</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>225</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>67</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>14.5</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6.6898319218241014</v>
       </c>
     </row>
